--- a/data_quarter/zb/工业/主要工业产品的销售与库存/白酒(折65度，商品量).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/白酒(折65度，商品量).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,21 @@
           <t>白酒(折65度，商品量)销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>白酒(折65度，商品量)产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>白酒(折65度，商品量)销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年第一季度</t>
+          <t>2000年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,45 +481,63 @@
       <c r="E2" t="n">
         <v>128</v>
       </c>
+      <c r="F2" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年第三季度</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>309.8</v>
+        <v>216.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年第二季度</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E4" t="n">
-        <v>216.7</v>
+        <v>309.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="G4" t="n">
+        <v>93.10000000000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年第四季度</t>
+          <t>2000年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,11 +550,17 @@
       <c r="E5" t="n">
         <v>468.8</v>
       </c>
+      <c r="F5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G5" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年第一季度</t>
+          <t>2001年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -539,47 +573,65 @@
       <c r="E6" t="n">
         <v>117.2</v>
       </c>
+      <c r="F6" t="n">
+        <v>3.599999999999994</v>
+      </c>
+      <c r="G6" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年第三季度</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.4</v>
-      </c>
+        <v>100.5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>-3.4</v>
+        <v>-1.1</v>
       </c>
       <c r="E7" t="n">
-        <v>295.3</v>
+        <v>212.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>95.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年第二季度</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>101.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.4</v>
+      </c>
       <c r="D8" t="n">
-        <v>-1.1</v>
+        <v>-3.4</v>
       </c>
       <c r="E8" t="n">
-        <v>212.9</v>
+        <v>295.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年第四季度</t>
+          <t>2001年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -592,11 +644,17 @@
       <c r="E9" t="n">
         <v>419.5</v>
       </c>
+      <c r="F9" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2002年第一季度</t>
+          <t>2002年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -609,45 +667,63 @@
       <c r="E10" t="n">
         <v>97.7</v>
       </c>
+      <c r="F10" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>97.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年第三季度</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.8</v>
+        <v>100</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>-5.7</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>259.6</v>
+        <v>179.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G11" t="n">
+        <v>81.99999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年第二季度</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>101.8</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>0.1</v>
+        <v>-5.7</v>
       </c>
       <c r="E12" t="n">
-        <v>179.7</v>
+        <v>259.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="G12" t="n">
+        <v>79.90000000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2002年第四季度</t>
+          <t>2002年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -660,11 +736,17 @@
       <c r="E13" t="n">
         <v>373.5</v>
       </c>
+      <c r="F13" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -677,45 +759,63 @@
       <c r="E14" t="n">
         <v>86.5</v>
       </c>
+      <c r="F14" t="n">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="G14" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>-5.4</v>
+        <v>-3.8</v>
       </c>
       <c r="E15" t="n">
-        <v>226.7</v>
+        <v>153.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>-3.8</v>
+        <v>-5.4</v>
       </c>
       <c r="E16" t="n">
-        <v>153.4</v>
+        <v>226.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G16" t="n">
+        <v>73.29999999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -728,11 +828,17 @@
       <c r="E17" t="n">
         <v>330.1</v>
       </c>
+      <c r="F17" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -745,45 +851,63 @@
       <c r="E18" t="n">
         <v>78.8</v>
       </c>
+      <c r="F18" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>-2.9</v>
+        <v>-4.9</v>
       </c>
       <c r="E19" t="n">
-        <v>215.2</v>
+        <v>138.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20.40000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60.10000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>-4.9</v>
+        <v>-2.9</v>
       </c>
       <c r="E20" t="n">
-        <v>138.9</v>
+        <v>215.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>76.29999999999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -796,11 +920,17 @@
       <c r="E21" t="n">
         <v>314.2</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G21" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -815,49 +945,67 @@
       <c r="E22" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.40000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.5</v>
+        <v>-1.2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9</v>
+        <v>-2.6</v>
       </c>
       <c r="E23" t="n">
-        <v>230.7</v>
+        <v>154.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>70.29999999999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.2</v>
+        <v>-3.5</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.6</v>
+        <v>-0.9</v>
       </c>
       <c r="E24" t="n">
-        <v>154.7</v>
+        <v>230.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -872,11 +1020,17 @@
       <c r="E25" t="n">
         <v>358.1</v>
       </c>
+      <c r="F25" t="n">
+        <v>4.699999999999989</v>
+      </c>
+      <c r="G25" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -891,49 +1045,67 @@
       <c r="E26" t="n">
         <v>92.90000000000001</v>
       </c>
+      <c r="F26" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>92.90000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.1</v>
+        <v>-2.9</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="E27" t="n">
-        <v>264.9</v>
+        <v>178.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.9</v>
+        <v>-1.1</v>
       </c>
       <c r="D28" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>178.3</v>
+        <v>264.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>86.59999999999997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -948,11 +1120,17 @@
       <c r="E29" t="n">
         <v>383.9</v>
       </c>
+      <c r="F29" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G29" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -967,49 +1145,67 @@
       <c r="E30" t="n">
         <v>113.7</v>
       </c>
+      <c r="F30" t="n">
+        <v>5.700000000000003</v>
+      </c>
+      <c r="G30" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C31" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="D31" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="E31" t="n">
-        <v>329</v>
+        <v>211.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>98.10000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D32" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="E32" t="n">
-        <v>211.8</v>
+        <v>329</v>
+      </c>
+      <c r="F32" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>117.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1024,11 +1220,17 @@
       <c r="E33" t="n">
         <v>485.2</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G33" t="n">
+        <v>156.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1043,49 +1245,67 @@
       <c r="E34" t="n">
         <v>132.1</v>
       </c>
+      <c r="F34" t="n">
+        <v>98</v>
+      </c>
+      <c r="G34" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="D35" t="n">
-        <v>12.1</v>
+        <v>5.8</v>
       </c>
       <c r="E35" t="n">
-        <v>378</v>
+        <v>252.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.1</v>
+        <v>-0.7</v>
       </c>
       <c r="D36" t="n">
-        <v>5.8</v>
+        <v>12.1</v>
       </c>
       <c r="E36" t="n">
-        <v>252.7</v>
+        <v>378</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="G36" t="n">
+        <v>125.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1100,11 +1320,17 @@
       <c r="E37" t="n">
         <v>562.1</v>
       </c>
+      <c r="F37" t="n">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="G37" t="n">
+        <v>184.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1119,49 +1345,67 @@
       <c r="E38" t="n">
         <v>138.2</v>
       </c>
+      <c r="F38" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D39" t="n">
-        <v>9.1</v>
+        <v>1.8</v>
       </c>
       <c r="E39" t="n">
-        <v>434.7</v>
+        <v>309.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>171.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C40" t="n">
-        <v>2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="D40" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="E40" t="n">
-        <v>309.3</v>
+        <v>434.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>125.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1176,11 +1420,17 @@
       <c r="E41" t="n">
         <v>628.5</v>
       </c>
+      <c r="F41" t="n">
+        <v>2.899999999999991</v>
+      </c>
+      <c r="G41" t="n">
+        <v>193.8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1195,49 +1445,67 @@
       <c r="E42" t="n">
         <v>207.9</v>
       </c>
+      <c r="F42" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>207.9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.6</v>
+        <v>-0.5</v>
       </c>
       <c r="D43" t="n">
-        <v>8.300000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E43" t="n">
-        <v>597.9</v>
+        <v>408.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>200.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.5</v>
+        <v>98.2</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.5</v>
+        <v>-2.6</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>408.4</v>
+        <v>597.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>189.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1252,11 +1520,17 @@
       <c r="E45" t="n">
         <v>873.3</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G45" t="n">
+        <v>275.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1271,49 +1545,67 @@
       <c r="E46" t="n">
         <v>237.3</v>
       </c>
+      <c r="F46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>237.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D47" t="n">
-        <v>12.4</v>
+        <v>6.5</v>
       </c>
       <c r="E47" t="n">
-        <v>689</v>
+        <v>471.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>234.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="D48" t="n">
-        <v>6.5</v>
+        <v>12.4</v>
       </c>
       <c r="E48" t="n">
-        <v>471.9</v>
+        <v>689</v>
+      </c>
+      <c r="F48" t="n">
+        <v>97</v>
+      </c>
+      <c r="G48" t="n">
+        <v>217.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1328,11 +1620,17 @@
       <c r="E49" t="n">
         <v>1021.8</v>
       </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>332.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1347,49 +1645,67 @@
       <c r="E50" t="n">
         <v>286.2</v>
       </c>
+      <c r="F50" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="G50" t="n">
+        <v>286.2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C51" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="D51" t="n">
-        <v>2.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>794.5</v>
+        <v>528.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>99</v>
+      </c>
+      <c r="G51" t="n">
+        <v>241.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="D52" t="n">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="E52" t="n">
-        <v>528.1</v>
+        <v>794.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="G52" t="n">
+        <v>266.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1404,11 +1720,17 @@
       <c r="E53" t="n">
         <v>1126.7</v>
       </c>
+      <c r="F53" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>332.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1423,49 +1745,67 @@
       <c r="E54" t="n">
         <v>285.1</v>
       </c>
+      <c r="F54" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>285.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.5</v>
+        <v>-0.9</v>
       </c>
       <c r="D55" t="n">
-        <v>24</v>
+        <v>13.6</v>
       </c>
       <c r="E55" t="n">
-        <v>833.6</v>
+        <v>569.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="G55" t="n">
+        <v>284.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.9</v>
+        <v>-2.5</v>
       </c>
       <c r="D56" t="n">
-        <v>13.6</v>
+        <v>24</v>
       </c>
       <c r="E56" t="n">
-        <v>569.2</v>
+        <v>833.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>264.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1480,11 +1820,17 @@
       <c r="E57" t="n">
         <v>1166.2</v>
       </c>
+      <c r="F57" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>332.6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1499,49 +1845,67 @@
       <c r="E58" t="n">
         <v>297.5</v>
       </c>
+      <c r="F58" t="n">
+        <v>4.600000000000009</v>
+      </c>
+      <c r="G58" t="n">
+        <v>297.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>96.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="D59" t="n">
-        <v>20.1</v>
+        <v>10.6</v>
       </c>
       <c r="E59" t="n">
-        <v>855.5</v>
+        <v>591</v>
+      </c>
+      <c r="F59" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>293.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="D60" t="n">
-        <v>10.6</v>
+        <v>20.1</v>
       </c>
       <c r="E60" t="n">
-        <v>591</v>
+        <v>855.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>264.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1556,11 +1920,17 @@
       <c r="E61" t="n">
         <v>1202.6</v>
       </c>
+      <c r="F61" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>347.0999999999999</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1575,49 +1945,67 @@
       <c r="E62" t="n">
         <v>318.7</v>
       </c>
+      <c r="F62" t="n">
+        <v>7.300000000000011</v>
+      </c>
+      <c r="G62" t="n">
+        <v>318.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>97.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C63" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D63" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="E63" t="n">
-        <v>914.4</v>
+        <v>611.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>292.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>98.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D64" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="E64" t="n">
-        <v>611.5</v>
+        <v>914.4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>302.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1632,11 +2020,17 @@
       <c r="E65" t="n">
         <v>1278.8</v>
       </c>
+      <c r="F65" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="G65" t="n">
+        <v>364.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1651,49 +2045,67 @@
       <c r="E66" t="n">
         <v>336.97945</v>
       </c>
+      <c r="F66" t="n">
+        <v>4.200000000000003</v>
+      </c>
+      <c r="G66" t="n">
+        <v>336.97945</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>97.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D67" t="n">
-        <v>9.9</v>
+        <v>3.3</v>
       </c>
       <c r="E67" t="n">
-        <v>939.01257</v>
+        <v>643.57245</v>
+      </c>
+      <c r="F67" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>306.593</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="D68" t="n">
-        <v>3.3</v>
+        <v>9.9</v>
       </c>
       <c r="E68" t="n">
-        <v>643.57245</v>
+        <v>939.01257</v>
+      </c>
+      <c r="F68" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>295.44012</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1708,11 +2120,17 @@
       <c r="E69" t="n">
         <v>1305.71342</v>
       </c>
+      <c r="F69" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>366.7008500000001</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1727,49 +2145,67 @@
       <c r="E70" t="n">
         <v>355.45201</v>
       </c>
+      <c r="F70" t="n">
+        <v>9.699999999999989</v>
+      </c>
+      <c r="G70" t="n">
+        <v>355.45201</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.09999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="C71" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="n">
-        <v>1.6</v>
+        <v>-3.2</v>
       </c>
       <c r="E71" t="n">
-        <v>979.0948</v>
+        <v>685.30074</v>
+      </c>
+      <c r="F71" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>329.84873</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>101.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.2</v>
+        <v>1.6</v>
       </c>
       <c r="E72" t="n">
-        <v>685.30074</v>
+        <v>979.0948</v>
+      </c>
+      <c r="F72" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>293.7940599999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1784,11 +2220,17 @@
       <c r="E73" t="n">
         <v>1161.67993</v>
       </c>
+      <c r="F73" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="G73" t="n">
+        <v>182.58513</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1803,49 +2245,67 @@
       <c r="E74" t="n">
         <v>283.4492</v>
       </c>
+      <c r="F74" t="n">
+        <v>7.299999999999997</v>
+      </c>
+      <c r="G74" t="n">
+        <v>283.4492</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>103.8</v>
+        <v>103</v>
       </c>
       <c r="C75" t="n">
-        <v>4.1</v>
+        <v>-1.3</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.3</v>
+        <v>-6.6</v>
       </c>
       <c r="E75" t="n">
-        <v>700.82303</v>
+        <v>501.85575</v>
+      </c>
+      <c r="F75" t="n">
+        <v>103</v>
+      </c>
+      <c r="G75" t="n">
+        <v>218.40655</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>103</v>
+        <v>103.8</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.3</v>
+        <v>4.1</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.6</v>
+        <v>-2.3</v>
       </c>
       <c r="E76" t="n">
-        <v>501.85575</v>
+        <v>700.82303</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="G76" t="n">
+        <v>198.96728</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1860,11 +2320,17 @@
       <c r="E77" t="n">
         <v>854.652</v>
       </c>
+      <c r="F77" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>153.82897</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1879,49 +2345,67 @@
       <c r="E78" t="n">
         <v>222.28138</v>
       </c>
+      <c r="F78" t="n">
+        <v>9.900000000000006</v>
+      </c>
+      <c r="G78" t="n">
+        <v>222.28138</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>98.59999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.1</v>
+        <v>2.3</v>
       </c>
       <c r="D79" t="n">
-        <v>3.7</v>
+        <v>-2.8</v>
       </c>
       <c r="E79" t="n">
-        <v>561.17033</v>
+        <v>397.96866</v>
+      </c>
+      <c r="F79" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>175.68728</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>101.1</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>2.3</v>
+        <v>-0.1</v>
       </c>
       <c r="D80" t="n">
-        <v>-2.8</v>
+        <v>3.7</v>
       </c>
       <c r="E80" t="n">
-        <v>397.96866</v>
+        <v>561.17033</v>
+      </c>
+      <c r="F80" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>163.20167</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1935,6 +2419,12 @@
       </c>
       <c r="E81" t="n">
         <v>755.53173</v>
+      </c>
+      <c r="F81" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>194.3614</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/白酒(折65度，商品量).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/白酒(折65度，商品量).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>白酒(折65度，商品量)销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>白酒(折65度，商品量)产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>白酒(折65度，商品量)销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,57 +471,39 @@
       <c r="E2" t="n">
         <v>128</v>
       </c>
-      <c r="F2" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年B</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E3" t="n">
-        <v>216.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>88.69999999999999</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年C</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>309.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="G4" t="n">
-        <v>93.10000000000002</v>
+        <v>216.7</v>
       </c>
     </row>
     <row r="5">
@@ -550,12 +522,6 @@
       <c r="E5" t="n">
         <v>468.8</v>
       </c>
-      <c r="F5" t="n">
-        <v>99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>159</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -573,59 +539,41 @@
       <c r="E6" t="n">
         <v>117.2</v>
       </c>
-      <c r="F6" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="G6" t="n">
-        <v>117.2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年B</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>101.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.4</v>
+      </c>
       <c r="D7" t="n">
-        <v>-1.1</v>
+        <v>-3.4</v>
       </c>
       <c r="E7" t="n">
-        <v>212.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>95.7</v>
+        <v>295.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年C</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.4</v>
-      </c>
+        <v>100.5</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>-3.4</v>
+        <v>-1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>295.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>82.40000000000001</v>
+        <v>212.9</v>
       </c>
     </row>
     <row r="9">
@@ -644,12 +592,6 @@
       <c r="E9" t="n">
         <v>419.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>124.2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -667,57 +609,39 @@
       <c r="E10" t="n">
         <v>97.7</v>
       </c>
-      <c r="F10" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>97.7</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年B</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>101.8</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0.1</v>
+        <v>-5.7</v>
       </c>
       <c r="E11" t="n">
-        <v>179.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G11" t="n">
-        <v>81.99999999999999</v>
+        <v>259.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年C</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.8</v>
+        <v>100</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>-5.7</v>
+        <v>0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>259.6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="G12" t="n">
-        <v>79.90000000000003</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="13">
@@ -736,12 +660,6 @@
       <c r="E13" t="n">
         <v>373.5</v>
       </c>
-      <c r="F13" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>113.9</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -759,57 +677,39 @@
       <c r="E14" t="n">
         <v>86.5</v>
       </c>
-      <c r="F14" t="n">
-        <v>7.099999999999994</v>
-      </c>
-      <c r="G14" t="n">
-        <v>86.5</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>-3.8</v>
+        <v>-5.4</v>
       </c>
       <c r="E15" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>66.90000000000001</v>
+        <v>226.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>-5.4</v>
+        <v>-3.8</v>
       </c>
       <c r="E16" t="n">
-        <v>226.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G16" t="n">
-        <v>73.29999999999998</v>
+        <v>153.4</v>
       </c>
     </row>
     <row r="17">
@@ -828,12 +728,6 @@
       <c r="E17" t="n">
         <v>330.1</v>
       </c>
-      <c r="F17" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>103.4</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -851,57 +745,39 @@
       <c r="E18" t="n">
         <v>78.8</v>
       </c>
-      <c r="F18" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>78.8</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>-4.9</v>
+        <v>-2.9</v>
       </c>
       <c r="E19" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>20.40000000000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>60.10000000000001</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>-2.9</v>
+        <v>-4.9</v>
       </c>
       <c r="E20" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>76.29999999999998</v>
+        <v>138.9</v>
       </c>
     </row>
     <row r="21">
@@ -920,12 +796,6 @@
       <c r="E21" t="n">
         <v>314.2</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G21" t="n">
-        <v>99</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -945,61 +815,43 @@
       <c r="E22" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>84.40000000000001</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.2</v>
+        <v>-3.5</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.6</v>
+        <v>-0.9</v>
       </c>
       <c r="E23" t="n">
-        <v>154.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="G23" t="n">
-        <v>70.29999999999998</v>
+        <v>230.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.40000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.5</v>
+        <v>-1.2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.9</v>
+        <v>-2.6</v>
       </c>
       <c r="E24" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G24" t="n">
-        <v>76</v>
+        <v>154.7</v>
       </c>
     </row>
     <row r="25">
@@ -1020,12 +872,6 @@
       <c r="E25" t="n">
         <v>358.1</v>
       </c>
-      <c r="F25" t="n">
-        <v>4.699999999999989</v>
-      </c>
-      <c r="G25" t="n">
-        <v>127.4</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1045,61 +891,43 @@
       <c r="E26" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="F26" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="G26" t="n">
-        <v>92.90000000000001</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.9</v>
+        <v>-1.1</v>
       </c>
       <c r="D27" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>178.3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G27" t="n">
-        <v>85.40000000000001</v>
+        <v>264.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.1</v>
+        <v>-2.9</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="E28" t="n">
-        <v>264.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G28" t="n">
-        <v>86.59999999999997</v>
+        <v>178.3</v>
       </c>
     </row>
     <row r="29">
@@ -1120,12 +948,6 @@
       <c r="E29" t="n">
         <v>383.9</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G29" t="n">
-        <v>119</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1145,61 +967,43 @@
       <c r="E30" t="n">
         <v>113.7</v>
       </c>
-      <c r="F30" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="G30" t="n">
-        <v>113.7</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D31" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="E31" t="n">
-        <v>211.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="G31" t="n">
-        <v>98.10000000000001</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C32" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="D32" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="E32" t="n">
-        <v>329</v>
-      </c>
-      <c r="F32" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>117.2</v>
+        <v>211.8</v>
       </c>
     </row>
     <row r="33">
@@ -1220,12 +1024,6 @@
       <c r="E33" t="n">
         <v>485.2</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G33" t="n">
-        <v>156.2</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1245,61 +1043,43 @@
       <c r="E34" t="n">
         <v>132.1</v>
       </c>
-      <c r="F34" t="n">
-        <v>98</v>
-      </c>
-      <c r="G34" t="n">
-        <v>132.1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.1</v>
+        <v>-0.7</v>
       </c>
       <c r="D35" t="n">
-        <v>5.8</v>
+        <v>12.1</v>
       </c>
       <c r="E35" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="G35" t="n">
-        <v>120.6</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>5.8</v>
       </c>
       <c r="E36" t="n">
-        <v>378</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="G36" t="n">
-        <v>125.3</v>
+        <v>252.7</v>
       </c>
     </row>
     <row r="37">
@@ -1320,12 +1100,6 @@
       <c r="E37" t="n">
         <v>562.1</v>
       </c>
-      <c r="F37" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="G37" t="n">
-        <v>184.1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1345,61 +1119,43 @@
       <c r="E38" t="n">
         <v>138.2</v>
       </c>
-      <c r="F38" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>138.2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C39" t="n">
-        <v>2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="D39" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="E39" t="n">
-        <v>309.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G39" t="n">
-        <v>171.1</v>
+        <v>434.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="n">
-        <v>9.1</v>
+        <v>1.8</v>
       </c>
       <c r="E40" t="n">
-        <v>434.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>125.4</v>
+        <v>309.3</v>
       </c>
     </row>
     <row r="41">
@@ -1420,12 +1176,6 @@
       <c r="E41" t="n">
         <v>628.5</v>
       </c>
-      <c r="F41" t="n">
-        <v>2.899999999999991</v>
-      </c>
-      <c r="G41" t="n">
-        <v>193.8</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1445,61 +1195,43 @@
       <c r="E42" t="n">
         <v>207.9</v>
       </c>
-      <c r="F42" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>207.9</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.5</v>
+        <v>98.2</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.5</v>
+        <v>-2.6</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>408.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>200.5</v>
+        <v>597.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.6</v>
+        <v>-0.5</v>
       </c>
       <c r="D44" t="n">
-        <v>8.300000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E44" t="n">
-        <v>597.9</v>
-      </c>
-      <c r="F44" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>189.5</v>
+        <v>408.4</v>
       </c>
     </row>
     <row r="45">
@@ -1520,12 +1252,6 @@
       <c r="E45" t="n">
         <v>873.3</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G45" t="n">
-        <v>275.4</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,61 +1271,43 @@
       <c r="E46" t="n">
         <v>237.3</v>
       </c>
-      <c r="F46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G46" t="n">
-        <v>237.3</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="D47" t="n">
-        <v>6.5</v>
+        <v>12.4</v>
       </c>
       <c r="E47" t="n">
-        <v>471.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G47" t="n">
-        <v>234.6</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D48" t="n">
-        <v>12.4</v>
+        <v>6.5</v>
       </c>
       <c r="E48" t="n">
-        <v>689</v>
-      </c>
-      <c r="F48" t="n">
-        <v>97</v>
-      </c>
-      <c r="G48" t="n">
-        <v>217.1</v>
+        <v>471.9</v>
       </c>
     </row>
     <row r="49">
@@ -1620,12 +1328,6 @@
       <c r="E49" t="n">
         <v>1021.8</v>
       </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="n">
-        <v>332.8</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1645,61 +1347,43 @@
       <c r="E50" t="n">
         <v>286.2</v>
       </c>
-      <c r="F50" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="G50" t="n">
-        <v>286.2</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="D51" t="n">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="E51" t="n">
-        <v>528.1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>99</v>
-      </c>
-      <c r="G51" t="n">
-        <v>241.9</v>
+        <v>794.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C52" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="D52" t="n">
-        <v>2.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>794.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="G52" t="n">
-        <v>266.4</v>
+        <v>528.1</v>
       </c>
     </row>
     <row r="53">
@@ -1720,12 +1404,6 @@
       <c r="E53" t="n">
         <v>1126.7</v>
       </c>
-      <c r="F53" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="G53" t="n">
-        <v>332.2</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1745,61 +1423,43 @@
       <c r="E54" t="n">
         <v>285.1</v>
       </c>
-      <c r="F54" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="G54" t="n">
-        <v>285.1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9</v>
+        <v>-2.5</v>
       </c>
       <c r="D55" t="n">
-        <v>13.6</v>
+        <v>24</v>
       </c>
       <c r="E55" t="n">
-        <v>569.2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="G55" t="n">
-        <v>284.1</v>
+        <v>833.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.5</v>
+        <v>-0.9</v>
       </c>
       <c r="D56" t="n">
-        <v>24</v>
+        <v>13.6</v>
       </c>
       <c r="E56" t="n">
-        <v>833.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="G56" t="n">
-        <v>264.4</v>
+        <v>569.2</v>
       </c>
     </row>
     <row r="57">
@@ -1820,12 +1480,6 @@
       <c r="E57" t="n">
         <v>1166.2</v>
       </c>
-      <c r="F57" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="G57" t="n">
-        <v>332.6</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1845,61 +1499,43 @@
       <c r="E58" t="n">
         <v>297.5</v>
       </c>
-      <c r="F58" t="n">
-        <v>4.600000000000009</v>
-      </c>
-      <c r="G58" t="n">
-        <v>297.5</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>96.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="D59" t="n">
-        <v>10.6</v>
+        <v>20.1</v>
       </c>
       <c r="E59" t="n">
-        <v>591</v>
-      </c>
-      <c r="F59" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="G59" t="n">
-        <v>293.5</v>
+        <v>855.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="D60" t="n">
-        <v>20.1</v>
+        <v>10.6</v>
       </c>
       <c r="E60" t="n">
-        <v>855.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="G60" t="n">
-        <v>264.5</v>
+        <v>591</v>
       </c>
     </row>
     <row r="61">
@@ -1920,12 +1556,6 @@
       <c r="E61" t="n">
         <v>1202.6</v>
       </c>
-      <c r="F61" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="G61" t="n">
-        <v>347.0999999999999</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1945,61 +1575,43 @@
       <c r="E62" t="n">
         <v>318.7</v>
       </c>
-      <c r="F62" t="n">
-        <v>7.300000000000011</v>
-      </c>
-      <c r="G62" t="n">
-        <v>318.7</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>98.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D63" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="E63" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="F63" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="G63" t="n">
-        <v>292.8</v>
+        <v>914.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>97.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C64" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D64" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="E64" t="n">
-        <v>914.4</v>
-      </c>
-      <c r="F64" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>302.9</v>
+        <v>611.5</v>
       </c>
     </row>
     <row r="65">
@@ -2020,12 +1632,6 @@
       <c r="E65" t="n">
         <v>1278.8</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="G65" t="n">
-        <v>364.4</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2045,61 +1651,43 @@
       <c r="E66" t="n">
         <v>336.97945</v>
       </c>
-      <c r="F66" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="G66" t="n">
-        <v>336.97945</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="D67" t="n">
-        <v>3.3</v>
+        <v>9.9</v>
       </c>
       <c r="E67" t="n">
-        <v>643.57245</v>
-      </c>
-      <c r="F67" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>306.593</v>
+        <v>939.01257</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>97.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D68" t="n">
-        <v>9.9</v>
+        <v>3.3</v>
       </c>
       <c r="E68" t="n">
-        <v>939.01257</v>
-      </c>
-      <c r="F68" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="G68" t="n">
-        <v>295.44012</v>
+        <v>643.57245</v>
       </c>
     </row>
     <row r="69">
@@ -2120,12 +1708,6 @@
       <c r="E69" t="n">
         <v>1305.71342</v>
       </c>
-      <c r="F69" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="G69" t="n">
-        <v>366.7008500000001</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2145,61 +1727,43 @@
       <c r="E70" t="n">
         <v>355.45201</v>
       </c>
-      <c r="F70" t="n">
-        <v>9.699999999999989</v>
-      </c>
-      <c r="G70" t="n">
-        <v>355.45201</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>101.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.2</v>
+        <v>1.6</v>
       </c>
       <c r="E71" t="n">
-        <v>685.30074</v>
-      </c>
-      <c r="F71" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="G71" t="n">
-        <v>329.84873</v>
+        <v>979.0948</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.09999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="C72" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="n">
-        <v>1.6</v>
+        <v>-3.2</v>
       </c>
       <c r="E72" t="n">
-        <v>979.0948</v>
-      </c>
-      <c r="F72" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G72" t="n">
-        <v>293.7940599999999</v>
+        <v>685.30074</v>
       </c>
     </row>
     <row r="73">
@@ -2220,12 +1784,6 @@
       <c r="E73" t="n">
         <v>1161.67993</v>
       </c>
-      <c r="F73" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="G73" t="n">
-        <v>182.58513</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2245,61 +1803,43 @@
       <c r="E74" t="n">
         <v>283.4492</v>
       </c>
-      <c r="F74" t="n">
-        <v>7.299999999999997</v>
-      </c>
-      <c r="G74" t="n">
-        <v>283.4492</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>103</v>
+        <v>103.8</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.3</v>
+        <v>4.1</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.6</v>
+        <v>-2.3</v>
       </c>
       <c r="E75" t="n">
-        <v>501.85575</v>
-      </c>
-      <c r="F75" t="n">
-        <v>103</v>
-      </c>
-      <c r="G75" t="n">
-        <v>218.40655</v>
+        <v>700.82303</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>103.8</v>
+        <v>103</v>
       </c>
       <c r="C76" t="n">
-        <v>4.1</v>
+        <v>-1.3</v>
       </c>
       <c r="D76" t="n">
-        <v>-2.3</v>
+        <v>-6.6</v>
       </c>
       <c r="E76" t="n">
-        <v>700.82303</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="G76" t="n">
-        <v>198.96728</v>
+        <v>501.85575</v>
       </c>
     </row>
     <row r="77">
@@ -2320,12 +1860,6 @@
       <c r="E77" t="n">
         <v>854.652</v>
       </c>
-      <c r="F77" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G77" t="n">
-        <v>153.82897</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2345,61 +1879,43 @@
       <c r="E78" t="n">
         <v>222.28138</v>
       </c>
-      <c r="F78" t="n">
-        <v>9.900000000000006</v>
-      </c>
-      <c r="G78" t="n">
-        <v>222.28138</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>101.1</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>2.3</v>
+        <v>-0.1</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.8</v>
+        <v>3.7</v>
       </c>
       <c r="E79" t="n">
-        <v>397.96866</v>
-      </c>
-      <c r="F79" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>175.68728</v>
+        <v>561.17033</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>98.59999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1</v>
+        <v>2.3</v>
       </c>
       <c r="D80" t="n">
-        <v>3.7</v>
+        <v>-2.8</v>
       </c>
       <c r="E80" t="n">
-        <v>561.17033</v>
-      </c>
-      <c r="F80" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G80" t="n">
-        <v>163.20167</v>
+        <v>397.96866</v>
       </c>
     </row>
     <row r="81">
@@ -2419,12 +1935,6 @@
       </c>
       <c r="E81" t="n">
         <v>755.53173</v>
-      </c>
-      <c r="F81" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G81" t="n">
-        <v>194.3614</v>
       </c>
     </row>
   </sheetData>
